--- a/biology/Zoologie/Adrien_Dollfus/Adrien_Dollfus.xlsx
+++ b/biology/Zoologie/Adrien_Dollfus/Adrien_Dollfus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien (Frédéric Jules) Dollfus est un zoologiste français spécialisé dans l'étude des isopodes, né le 21 mars 1858 à Dornach (aujourd'hui quartier de Mulhouse), et mort le 19 novembre 1921 à Paris.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit-fils de l'industriel alsacien Jean Dollfus, il s'intéresse très jeune aux sciences naturelles et obtient une licence es-sciences. Il se passionne tout d'abord pour la botanique[1] puis la conchyliologie et l'entomologie et devient un spécialiste des isopodes.
-De 1872 à 1914 il est directeur de publication de la Feuille des jeunes naturalistes créée en 1870 par Ernest Dollfus (°1852 - †1872)[2] à Dornach et transférée en 1871 à Paris[3].
-Membre dès 1876 de la Société botanique de France, il l'est également de la Société d'étude des sciences naturelles d'Elbeuf[4] ainsi que de la Société zoologique de France dont il est membre fondateur en 1876 et qu'il préside en 1912.
-Le fonds Adrien Dollfus est déposé au Muséum national d'histoire naturelle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit-fils de l'industriel alsacien Jean Dollfus, il s'intéresse très jeune aux sciences naturelles et obtient une licence es-sciences. Il se passionne tout d'abord pour la botanique puis la conchyliologie et l'entomologie et devient un spécialiste des isopodes.
+De 1872 à 1914 il est directeur de publication de la Feuille des jeunes naturalistes créée en 1870 par Ernest Dollfus (°1852 - †1872) à Dornach et transférée en 1871 à Paris.
+Membre dès 1876 de la Société botanique de France, il l'est également de la Société d'étude des sciences naturelles d'Elbeuf ainsi que de la Société zoologique de France dont il est membre fondateur en 1876 et qu'il préside en 1912.
+Le fonds Adrien Dollfus est déposé au Muséum national d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société académique de l'Aube : Membre correspondant, 1881-1921.
 Société botanique de France : membre, 1876-1921.
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste détaillée des publications
@@ -748,7 +766,9 @@
           <t>Liste de taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agabiformius orientalis Dollfus 1905
